--- a/work_4_Benchmark/My_Benchmark.xlsx
+++ b/work_4_Benchmark/My_Benchmark.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>small dataset</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>mongo</t>
+  </si>
+  <si>
+    <t>local_</t>
   </si>
 </sst>
 </file>
@@ -237,21 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,7 +253,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -271,6 +261,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,403 +583,471 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="3" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="4"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="4" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="16">
         <v>25.9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>1.3671875</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>0.24267587661743101</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>28.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>1.3582031299999999</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>0.36226781368255601</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <v>29</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>13.18359375</v>
       </c>
-      <c r="J4" s="12">
-        <v>0.65635545730590805</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="8">
+        <v>0.65635544999999995</v>
+      </c>
+      <c r="K4" s="4">
         <v>27.4</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="4">
         <v>18.0625</v>
       </c>
-      <c r="M4" s="12">
-        <v>41.861475339999998</v>
-      </c>
-      <c r="N4" s="22">
+      <c r="M4" s="8">
+        <v>41.861474999999999</v>
+      </c>
+      <c r="N4" s="17">
         <v>27.6</v>
       </c>
-      <c r="O4" s="8">
-        <v>18.93359375</v>
-      </c>
-      <c r="P4" s="8">
-        <v>43.596172240000001</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="O4" s="4">
+        <v>18.933592999999998</v>
+      </c>
+      <c r="P4" s="4">
+        <v>43.596170000000001</v>
+      </c>
+      <c r="Q4" s="9">
         <v>29.8</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="8">
         <v>32.565572119999999</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="8">
         <v>58.124876209999996</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="15"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>22.3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0.1245869</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>0.21565723148226501</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>21.9</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>0.14585471999999999</v>
       </c>
-      <c r="G5" s="12">
-        <v>0.24733996391296301</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="H5" s="4">
         <v>31.6</v>
       </c>
-      <c r="I5" s="12">
-        <v>12.598544800000001</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.73481475565859999</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="I5" s="8">
+        <v>12.598544840000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.73481474999999996</v>
+      </c>
+      <c r="K5" s="8">
         <v>21.7</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <v>14.25</v>
       </c>
-      <c r="M5" s="8">
-        <v>56.568555199999999</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="M5" s="4">
+        <v>56.568555000000003</v>
+      </c>
+      <c r="N5" s="8">
         <v>21.6</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <v>14.319616</v>
       </c>
-      <c r="P5" s="12">
-        <v>39.458548200000003</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="P5" s="8">
+        <v>39.458539999999999</v>
+      </c>
+      <c r="Q5" s="4">
         <v>58.64</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="4">
         <v>39.587654219999997</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="4">
         <v>129.99456724000001</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="15"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="11"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18">
+        <v>25.7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.34854000000000002</v>
+      </c>
+      <c r="E6" s="18">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.4524675140000001</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.90011346000000003</v>
+      </c>
+      <c r="K6" s="18">
+        <v>24.8</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1.24</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2.2911112999999999</v>
+      </c>
+      <c r="N6" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="O6" s="18">
+        <v>3.4586549999999998</v>
+      </c>
+      <c r="P6" s="18">
+        <v>2.3156650000000001</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R6" s="19">
+        <v>3.8585653999999998</v>
+      </c>
+      <c r="S6" s="20">
+        <v>8.0545865550000002</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="11"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -991,7 +1064,7 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B8">
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1003,7 +1076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
+  <conditionalFormatting sqref="C7:C9">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1015,7 +1088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="D7:D9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1027,7 +1100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
+  <conditionalFormatting sqref="E7:E9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1039,7 +1112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8">
+  <conditionalFormatting sqref="F7:F9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1051,7 +1124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8">
+  <conditionalFormatting sqref="G7:G9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1063,7 +1136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H8">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1075,7 +1148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I8">
+  <conditionalFormatting sqref="I7:I9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1087,7 +1160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J8">
+  <conditionalFormatting sqref="J7:J9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1099,7 +1172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K8">
+  <conditionalFormatting sqref="K7:K9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1111,7 +1184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8">
+  <conditionalFormatting sqref="L7:L9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1123,7 +1196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M8">
+  <conditionalFormatting sqref="M5:M9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1135,7 +1208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N8">
+  <conditionalFormatting sqref="N7:N9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1147,7 +1220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O8">
+  <conditionalFormatting sqref="O7:O9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1159,7 +1232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P8">
+  <conditionalFormatting sqref="P7:P9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1171,7 +1244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q8">
+  <conditionalFormatting sqref="Q5:Q9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1183,7 +1256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R8">
+  <conditionalFormatting sqref="R5:R9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1195,7 +1268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S8">
+  <conditionalFormatting sqref="S5:S9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
